--- a/biology/Botanique/Jarava/Jarava.xlsx
+++ b/biology/Botanique/Jarava/Jarava.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jarava est un genre de plantes monocotylédones de la famille des Poaceae, originaire d'Amérique du Sud.
 </t>
@@ -511,13 +523,50 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Jarava  a été défini par les botanistes espagnols, Ruiz et Pavón, dans leur Florae Peruvianae, et Chilensis Prodromus 2. publiée en 1794[1]. 
-Ce groupe était précédemment inclus en tant que sous-genre dans le genre Stipa avec 14 espèces. Certains auteurs incluent également dans le genre Javara deux autres groupes, précédemment classés comme sous-genres de Stipa (Ruiz. &amp; Pav.) Trin. : Pappostipa Speg. et Ptilostipa Sprg., soit une cinquantaine d'espèces au total pour les trois groupes	[2].
-L'espèce-type est Jarava ichu[1].
-Liste des espèces
-Selon Tropicos                                           (27 juin 2016)[3]  (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Jarava  a été défini par les botanistes espagnols, Ruiz et Pavón, dans leur Florae Peruvianae, et Chilensis Prodromus 2. publiée en 1794. 
+Ce groupe était précédemment inclus en tant que sous-genre dans le genre Stipa avec 14 espèces. Certains auteurs incluent également dans le genre Javara deux autres groupes, précédemment classés comme sous-genres de Stipa (Ruiz. &amp; Pav.) Trin. : Pappostipa Speg. et Ptilostipa Sprg., soit une cinquantaine d'espèces au total pour les trois groupes	.
+L'espèce-type est Jarava ichu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jarava</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jarava</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (27 juin 2016)  (Attention liste brute contenant possiblement des synonymes) :
 Jarava academica (Hicken) Peñail., 2003,
 Jarava ambigua (Speg.) Peñail., 2002,
 Jarava ameghinoi (Speg.) Peñail., 2002,
@@ -538,20 +587,20 @@
 Jarava durifolia (Parodi ex Torres) Peñail., 2003,
 Jarava eriostachya (Kunth) Peñail., 2002,
 Jarava filifolia (Nees) Ciald., 2012,
-Jarava frigida (Phil.) F. Rojas, 1997 [1998],
+Jarava frigida (Phil.) F. Rojas, 1997 ,
 Jarava hieronymusii (Pilg.) Peñail., 2002,
 Jarava humilis (Cav.) Peñail., 2002,
 Jarava hypsophila (Speg.) Peñail., 2002,
 Jarava hystricina (Speg.) Peñail., 2003,
 Jarava ibarii (Phil.) Peñail., 2002,
 Jarava ichu Ruiz &amp; Pav., 1798,
-Jarava illimanica (Hack.) F. Rojas, 1997 [1998],
+Jarava illimanica (Hack.) F. Rojas, 1997 ,
 Jarava juncoides (Speg.) Peñail., 2002,
-Jarava leptostachya (Griseb.) F. Rojas, 1997 [1998],
+Jarava leptostachya (Griseb.) F. Rojas, 1997 ,
 Jarava macbridei (Hitchc.) Peñail., 2002,
 Jarava maeviae (F.A. Roig) Peñail., 2002,
 Jarava malalhuensis (F.A. Roig) Peñail., 2002,
-Jarava mattheii F. Rojas, 1997 [1998],
+Jarava mattheii F. Rojas, 1997 ,
 Jarava media (Speg.) Peñail., 2003,
 Jarava megapotamica (Spreng.) Peñail., 2002,
 Jarava milleana (Hitchc.) Peñail., 2002,
@@ -562,25 +611,25 @@
 Jarava parodiana (F.A. Roig) Peñail., 2002,
 Jarava patagonica (Speg.) Peñail., 2002,
 Jarava plumosa (Spreng.) S.W.L. Jacobs &amp; J. Everett, 1997,
-Jarava plumosula (Nees ex Steud.) F. Rojas, 1997 [1998],
+Jarava plumosula (Nees ex Steud.) F. Rojas, 1997 ,
 Jarava pogonathera (E. Desv.) Peñail., 2002,
 Jarava polyclada (Hack.) Peñail., 2002,
-Jarava pseudoichu (Caro) F. Rojas, 1997 [1998],
+Jarava pseudoichu (Caro) F. Rojas, 1997 ,
 Jarava psylantha (Speg.) Peñail., 2002,
-Jarava pungens (Nees &amp; Meyen) Matthei, 1997 [1998],
-Jarava pungionata (Caro &amp; E.A. Sánchez) Matthei, 1997 [1998],
+Jarava pungens (Nees &amp; Meyen) Matthei, 1997 ,
+Jarava pungionata (Caro &amp; E.A. Sánchez) Matthei, 1997 ,
 Jarava ruiz-lealii (F.A. Roig) Peñail., 2002,
 Jarava scabrifolia (Torres) Peñail., 2003,
 Jarava scirpea (Speg.) Peñail., 2002,
 Jarava semperiana (F.A. Roig) Peñail., 2002,
 Jarava sorianoi (Parodi) Peñail., 2002,
 Jarava speciosa (Trin. &amp; Rupr.) Peñail., 2002,
-Jarava subaristata (Matthei) Matthei, 1997 [1998],
+Jarava subaristata (Matthei) Matthei, 1997 ,
 Jarava subnitida (Roseng. &amp; B.R. Arrill.) Peñail., 2002,
 Jarava subplumosa (Hicken ex F.A. Roig) Peñail., 2002,
 Jarava tortuosa (E. Desv.) Peñail., 2002,
 Jarava usitata Pers., 1805,
-Jarava vaginata (Phil.) F. Rojas, 1997 [1998],
+Jarava vaginata (Phil.) F. Rojas, 1997 ,
 Jarava vatroensis (F.A. Roig) Peñail., 2002.
 </t>
         </is>
